--- a/docs/Fórmulas-polinomiais-excel.xlsx
+++ b/docs/Fórmulas-polinomiais-excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtorres\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rtorres\eclipse-workspace\AIAD\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83DEFF86-3BEE-4D8F-8D27-1EBA18A62791}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D31D4C-4CC3-48EF-AD55-390CA2931848}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{5DF59861-CD3F-4726-9ACC-EDA114ED9898}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{5DF59861-CD3F-4726-9ACC-EDA114ED9898}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>x</t>
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Tempo desligado graph</t>
+  </si>
+  <si>
+    <t>Tempo aceso graph</t>
+  </si>
+  <si>
+    <t>Carros graph (não utilizado)</t>
   </si>
 </sst>
 </file>
@@ -214,46 +223,48 @@
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$A$2:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0,1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0,2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0,3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0,4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0,5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0,6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>0,7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999993</c:v>
+                  <c:v>0,8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0,9</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="15">
+                  <c:v>Tempo aceso graph</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -265,34 +276,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -636,7 +647,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.8</c:v>
@@ -957,59 +968,65 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$A$34:$A$50</c:f>
+              <c:f>Folha1!$A$44:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>140</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>160</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>170</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -1017,60 +1034,66 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$B$34:$B$50</c:f>
+              <c:f>Folha1!$B$44:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>1.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>1.6</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2.4</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>2.8</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>3.3</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>3.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>4.4000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>4.9000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>5</c:v>
+                <c:pt idx="17">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1269,6 +1292,464 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$A$65:$A$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$B$65:$B$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.43</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.73</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.79</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.86</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.93</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F133-4E3B-A275-D16A2B116B84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="475110152"/>
+        <c:axId val="475108512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="475110152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475108512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="475108512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475110152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1389,6 +1870,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2422,6 +2943,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3042,6 +4079,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F0C823-30A3-4735-B260-654A2CBA5174}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3347,10 +4420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E9022D-30B9-40E6-9E52-14CAEFCC8915}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3381,7 +4454,10 @@
         <v>0.1</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0.6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3390,7 +4466,7 @@
         <v>0.2</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3399,7 +4475,7 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3408,7 +4484,7 @@
         <v>0.4</v>
       </c>
       <c r="B6">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3417,7 +4493,7 @@
         <v>0.5</v>
       </c>
       <c r="B7">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3426,7 +4502,7 @@
         <v>0.6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3435,7 +4511,7 @@
         <v>0.7</v>
       </c>
       <c r="B9">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3444,7 +4520,7 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3453,7 +4529,7 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3461,10 +4537,14 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>0</v>
@@ -3480,7 +4560,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="2">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3563,154 +4643,375 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>20</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>30</v>
-      </c>
-      <c r="B35">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>40</v>
-      </c>
-      <c r="B36">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>50</v>
-      </c>
-      <c r="B37">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>60</v>
-      </c>
-      <c r="B38">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>70</v>
-      </c>
-      <c r="B39">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>80</v>
-      </c>
-      <c r="B40">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>90</v>
-      </c>
-      <c r="B41">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>100</v>
-      </c>
-      <c r="B42">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>110</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="B44">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45">
-        <f>A44+10</f>
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="B45">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f t="shared" ref="A46:A49" si="1">A45+10</f>
-        <v>140</v>
-      </c>
-      <c r="B46">
-        <v>3.3</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>20</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="B47">
-        <v>3.8</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>40</v>
+      </c>
+      <c r="B48">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>60</v>
+      </c>
+      <c r="B50">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>70</v>
+      </c>
+      <c r="B51">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>80</v>
+      </c>
+      <c r="B52">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>90</v>
+      </c>
+      <c r="B53">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>100</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>110</v>
+      </c>
+      <c r="B55">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>120</v>
+      </c>
+      <c r="B56">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f>A56+10</f>
+        <v>130</v>
+      </c>
+      <c r="B57">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f>A57+10</f>
+        <v>140</v>
+      </c>
+      <c r="B58">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f>A58+10</f>
+        <v>150</v>
+      </c>
+      <c r="B59">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f>A59+10</f>
+        <v>160</v>
+      </c>
+      <c r="B60">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f>A60+10</f>
+        <v>170</v>
+      </c>
+      <c r="B61">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>180</v>
+      </c>
+      <c r="B62" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f>A65+1</f>
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" ref="A67:A85" si="1">A66+1</f>
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
         <f t="shared" si="1"/>
-        <v>160</v>
-      </c>
-      <c r="B48">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
         <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
-      <c r="B49">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>180</v>
-      </c>
-      <c r="B50" s="2">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="1"/>
         <v>5</v>
+      </c>
+      <c r="B70">
+        <v>-0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B71">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B72">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>-0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B75">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B76">
+        <f>-0.43</f>
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B77">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B78">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B79">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f>A79+1</f>
+        <v>15</v>
+      </c>
+      <c r="B80">
+        <f>-0.66</f>
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B81">
+        <f>-0.73</f>
+        <v>-0.73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B82">
+        <f>-0.79</f>
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B83">
+        <f>-0.86</f>
+        <v>-0.86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f>A83+1</f>
+        <v>19</v>
+      </c>
+      <c r="B84">
+        <v>-0.93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B85">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Fórmulas-polinomiais-excel.xlsx
+++ b/docs/Fórmulas-polinomiais-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rtorres\eclipse-workspace\AIAD\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D31D4C-4CC3-48EF-AD55-390CA2931848}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A26E21-D2FC-4B18-A37F-D671CDE82F10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{5DF59861-CD3F-4726-9ACC-EDA114ED9898}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>x</t>
   </si>
@@ -46,12 +46,18 @@
   <si>
     <t>Carros graph (não utilizado)</t>
   </si>
+  <si>
+    <t>Tempo (ticks)</t>
+  </si>
+  <si>
+    <t>Prioridade</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +70,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -109,6 +123,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,7 +531,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Prioridade Temporal Semáforo Verde</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -526,48 +596,182 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.8010279965004374E-2"/>
-                  <c:y val="-0.72058398950131231"/>
+                  <c:x val="4.3611111111111107E-3"/>
+                  <c:y val="-0.29500196196405681"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="1" baseline="0"/>
+                      <a:t>y = -0,0001x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="1" baseline="30000"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="1" baseline="0"/>
+                      <a:t> - 0,0389x + 6,2782</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1000" b="1" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="1" baseline="0"/>
+                      <a:t>R² = 0,9948</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1000" b="1"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -690,8 +894,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -704,6 +909,8 @@
         <c:axId val="560541840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="120"/>
+          <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -721,20 +928,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Tempo Passado no estado (Ticks)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -766,6 +1022,7 @@
         <c:axId val="510746448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -783,20 +1040,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Prioridade</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -832,6 +1138,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -890,7 +1227,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Prioridade Temporal Semáforo Vermelho</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -900,42 +1292,182 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.38009954093940002"/>
+                  <c:y val="0.11606241428869565"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="1" baseline="0"/>
+                      <a:t>y = 0,0002x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="1" baseline="30000"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="1" baseline="0"/>
+                      <a:t> + 0,0059x - 0,1051</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1000" b="1" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="1" baseline="0"/>
+                      <a:t>R² = 0,9951</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1000" b="1"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1106,8 +1638,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1120,6 +1653,7 @@
         <c:axId val="572030864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="180"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1137,20 +1671,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Tempo Passado no estado (Ticks)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1182,6 +1765,8 @@
         <c:axId val="571757600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1199,20 +1784,77 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Prioridade</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.1205666788257824E-2"/>
+              <c:y val="0.45535629536047567"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1248,6 +1890,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1307,6 +1980,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Prioridade para</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> peões</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1320,7 +2023,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1346,34 +2049,127 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1382,6 +2178,53 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.5847331583552063E-2"/>
+                  <c:y val="-0.478322712008041"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="1" baseline="0"/>
+                      <a:t>y = -0,0012x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="1" baseline="30000"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="1" baseline="0"/>
+                      <a:t> - 0,0266x + 0,0126</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1000" b="1" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="1" baseline="0"/>
+                      <a:t>R² = 0,9995</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1000" b="1"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1564,8 +2407,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="b"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1578,6 +2422,7 @@
         <c:axId val="475110152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1595,20 +2440,73 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Número</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> de peões</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1640,6 +2538,8 @@
         <c:axId val="475108512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0"/>
+          <c:min val="-1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1657,20 +2557,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Prioriidade</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1706,6 +2655,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1791,12 +2771,9 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -1831,12 +2808,9 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -1871,12 +2845,9 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -2427,7 +3398,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2438,7 +3409,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2451,11 +3422,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2468,7 +3439,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2484,7 +3455,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2528,20 +3499,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2550,13 +3521,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2568,30 +3539,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2631,23 +3603,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2694,14 +3665,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2752,8 +3717,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2791,20 +3756,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2817,6 +3782,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2848,7 +3824,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2857,14 +3833,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2885,20 +3860,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2912,17 +3886,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2930,20 +3893,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2954,7 +3911,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2967,11 +3924,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2984,7 +3941,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3000,7 +3957,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3044,20 +4001,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3066,13 +4023,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3084,30 +4041,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3147,23 +4105,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3210,14 +4167,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -3268,8 +4219,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3307,20 +4258,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3333,6 +4284,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3364,7 +4326,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3373,14 +4335,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3401,20 +4362,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3428,17 +4388,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3446,20 +4395,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3470,7 +4413,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3483,11 +4426,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3500,7 +4443,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3516,7 +4459,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3560,20 +4503,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3582,13 +4525,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3600,30 +4543,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3663,23 +4607,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3726,14 +4669,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -3784,8 +4721,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3823,20 +4760,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3849,6 +4786,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3880,7 +4828,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3889,14 +4837,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3917,20 +4864,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3944,17 +4890,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3962,14 +4897,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4050,16 +4979,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4086,16 +5015,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4422,8 +5351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E9022D-30B9-40E6-9E52-14CAEFCC8915}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S70" sqref="S70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4448,7 +5377,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+0.1</f>
         <v>0.1</v>
@@ -4456,7 +5385,7 @@
       <c r="B3">
         <v>0.6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4545,12 +5474,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
